--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/minkProj/nCov-Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72A88E1-41B2-E74E-8A95-9B5766E0A749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BE026A-457E-B94B-B93C-F07398679F5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28380" yWindow="1740" windowWidth="26520" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24680" yWindow="1740" windowWidth="26520" windowHeight="20780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
-    <sheet name="SitautonNumbers" sheetId="4" r:id="rId2"/>
+    <sheet name="SituationNumbers" sheetId="4" r:id="rId2"/>
     <sheet name="Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -248,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -320,16 +320,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -341,10 +341,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
@@ -3781,7 +3781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BE026A-457E-B94B-B93C-F07398679F5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A070FB7-A878-0440-9718-AC87DB3AE65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24680" yWindow="1740" windowWidth="26520" windowHeight="20780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -281,12 +281,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +304,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -342,9 +336,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3782,7 +3773,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3808,7 +3799,7 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>53</v>
@@ -3822,7 +3813,7 @@
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3836,7 +3827,7 @@
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -3850,7 +3841,7 @@
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -3864,7 +3855,7 @@
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -3878,7 +3869,7 @@
     </row>
     <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>50</v>
@@ -3891,8 +3882,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>43856</v>
+      <c r="A8" s="4">
+        <v>43857</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -3905,8 +3896,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>43856</v>
+      <c r="A9" s="4">
+        <v>43857</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -3919,8 +3910,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>43856</v>
+      <c r="A10" s="4">
+        <v>43857</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>60</v>
@@ -3933,8 +3924,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>43856</v>
+      <c r="A11" s="4">
+        <v>43857</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>61</v>
@@ -3948,7 +3939,7 @@
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
@@ -3962,7 +3953,7 @@
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -3976,7 +3967,7 @@
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -3990,7 +3981,7 @@
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -4004,7 +3995,7 @@
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -4018,7 +4009,7 @@
     </row>
     <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>43856</v>
+        <v>43858</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>50</v>
@@ -4031,8 +4022,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
-        <v>43856</v>
+      <c r="A18" s="4">
+        <v>43858</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -4045,8 +4036,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
-        <v>43856</v>
+      <c r="A19" s="4">
+        <v>43858</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -4059,8 +4050,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
-        <v>43856</v>
+      <c r="A20" s="4">
+        <v>43858</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>60</v>
@@ -4073,8 +4064,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
-        <v>43856</v>
+      <c r="A21" s="4">
+        <v>43858</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>61</v>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A070FB7-A878-0440-9718-AC87DB3AE65D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D186B-14D0-1144-8B58-9E448369CBB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="1740" windowWidth="26520" windowHeight="20780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1840" windowWidth="26520" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="68">
   <si>
     <t>China</t>
   </si>
@@ -242,6 +242,9 @@
   <si>
     <t>Germany</t>
   </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -276,8 +279,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -304,7 +313,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -337,6 +346,21 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3758,6 +3782,329 @@
         <v>46</v>
       </c>
     </row>
+    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A134" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B134" s="11">
+        <v>9</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="12">
+        <v>5997</v>
+      </c>
+      <c r="E134" s="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A135" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B135" s="11">
+        <v>9</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" s="12">
+        <v>7</v>
+      </c>
+      <c r="E135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A136" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B136" s="11">
+        <v>9</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="12">
+        <v>4</v>
+      </c>
+      <c r="E136" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A137" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B137" s="11">
+        <v>9</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="12">
+        <v>2</v>
+      </c>
+      <c r="E137" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A138" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B138" s="11">
+        <v>9</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="12">
+        <v>7</v>
+      </c>
+      <c r="E138" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A139" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B139" s="11">
+        <v>9</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="12">
+        <v>7</v>
+      </c>
+      <c r="E139" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A140" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B140" s="11">
+        <v>9</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="12">
+        <v>4</v>
+      </c>
+      <c r="E140" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A141" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B141" s="11">
+        <v>9</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" s="12">
+        <v>1</v>
+      </c>
+      <c r="E141" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A142" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B142" s="11">
+        <v>9</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="12">
+        <v>14</v>
+      </c>
+      <c r="E142" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A143" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B143" s="11">
+        <v>9</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="12">
+        <v>1</v>
+      </c>
+      <c r="E143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A144" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B144" s="11">
+        <v>9</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" s="12">
+        <v>1</v>
+      </c>
+      <c r="E144" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A145" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B145" s="11">
+        <v>9</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="12">
+        <v>5</v>
+      </c>
+      <c r="E145" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A146" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B146" s="11">
+        <v>9</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" s="12">
+        <v>3</v>
+      </c>
+      <c r="E146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A147" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B147" s="11">
+        <v>9</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="12">
+        <v>4</v>
+      </c>
+      <c r="E147" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A148" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B148" s="11">
+        <v>9</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" s="12">
+        <v>4</v>
+      </c>
+      <c r="E148" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A149" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B149" s="11">
+        <v>9</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149" s="12">
+        <v>4</v>
+      </c>
+      <c r="E149" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A150" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B150" s="11">
+        <v>9</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" s="13">
+        <v>8</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A151" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B151" s="11">
+        <v>9</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="13">
+        <v>7</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="10">
+        <v>43859</v>
+      </c>
+      <c r="B152" s="11">
+        <v>9</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="13">
+        <v>8</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E101" xr:uid="{5E8C5D7B-D6FC-9E4F-A122-0AB23733A3F2}">
     <sortState ref="A2:E101">
@@ -3770,310 +4117,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A2" s="14">
         <v>43857</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="15">
         <v>2798</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
         <v>43857</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>2741</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>43857</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>5794</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>43857</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
         <v>43857</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="14">
         <v>43857</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="14">
         <v>43857</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="14">
         <v>43857</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="14">
         <v>43857</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="14">
         <v>43857</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
         <v>43858</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
         <v>4593</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
         <v>43858</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
         <v>4537</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
         <v>43858</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
         <v>6973</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
         <v>43858</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
         <v>976</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
         <v>43858</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="A17" s="14">
         <v>43858</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="A18" s="14">
         <v>43858</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="A19" s="14">
         <v>43858</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="A20" s="14">
         <v>43858</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="14">
         <v>43858</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="15">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="15">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="15">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
+        <v>43858</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>59</v>
       </c>
     </row>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D186B-14D0-1144-8B58-9E448369CBB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8501CD-761B-6441-9771-B9EA52226C2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1840" windowWidth="26520" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24680" yWindow="1840" windowWidth="26520" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WHO-Data'!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WHO-Data'!$A$1:$E$152</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="64">
   <si>
     <t>China</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore </t>
   </si>
   <si>
     <t>Australia</t>
@@ -135,9 +129,6 @@
     <t>China - Shanghai Municipality</t>
   </si>
   <si>
-    <t>China -Chongqing Municipality</t>
-  </si>
-  <si>
     <t>China - Zhejiang Province</t>
   </si>
   <si>
@@ -177,15 +168,9 @@
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Republic of Singapore</t>
-  </si>
-  <si>
     <t>Not Avail</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nepal</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -244,6 +229,9 @@
   </si>
   <si>
     <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>China - Chongqing Municipality</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1535,22 +1524,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>43850</v>
       </c>
@@ -1558,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>258</v>
@@ -1567,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43850</v>
       </c>
@@ -1575,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -1584,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43850</v>
       </c>
@@ -1592,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1601,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>43850</v>
       </c>
@@ -1609,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1618,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43850</v>
       </c>
@@ -1635,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>43850</v>
       </c>
@@ -1652,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>43850</v>
       </c>
@@ -1660,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1669,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>43850</v>
       </c>
@@ -1686,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>43852</v>
       </c>
@@ -1694,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>270</v>
@@ -1703,7 +1692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>43852</v>
       </c>
@@ -1711,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>17</v>
@@ -1720,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>43852</v>
       </c>
@@ -1728,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1737,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>43852</v>
       </c>
@@ -1745,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1754,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>43852</v>
       </c>
@@ -1762,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1771,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>43852</v>
       </c>
@@ -1779,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1788,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>43852</v>
       </c>
@@ -1796,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1805,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>43852</v>
       </c>
@@ -1813,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1822,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>43852</v>
       </c>
@@ -1830,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1839,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>43852</v>
       </c>
@@ -1847,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1856,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>43852</v>
       </c>
@@ -1864,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1873,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>43852</v>
       </c>
@@ -1881,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1890,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>43852</v>
       </c>
@@ -1898,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1907,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>43852</v>
       </c>
@@ -1915,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1924,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>43852</v>
       </c>
@@ -1941,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>43852</v>
       </c>
@@ -1958,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>43852</v>
       </c>
@@ -1966,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1975,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>43852</v>
       </c>
@@ -1992,7 +1981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>43853</v>
       </c>
@@ -2000,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>375</v>
@@ -2009,7 +1998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>43853</v>
       </c>
@@ -2017,13 +2006,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>43853</v>
       </c>
@@ -2031,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>26</v>
@@ -2040,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>43853</v>
       </c>
@@ -2048,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -2057,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>43853</v>
       </c>
@@ -2065,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -2074,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>43853</v>
       </c>
@@ -2082,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -2091,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>43853</v>
       </c>
@@ -2099,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -2108,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>43853</v>
       </c>
@@ -2116,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2125,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>43853</v>
       </c>
@@ -2133,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2142,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>43853</v>
       </c>
@@ -2150,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2159,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>43853</v>
       </c>
@@ -2167,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2176,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>43853</v>
       </c>
@@ -2184,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2193,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>43853</v>
       </c>
@@ -2201,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2210,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>43853</v>
       </c>
@@ -2218,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2227,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>43853</v>
       </c>
@@ -2235,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2244,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>43853</v>
       </c>
@@ -2252,13 +2241,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>43853</v>
       </c>
@@ -2266,13 +2255,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>43853</v>
       </c>
@@ -2289,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>43853</v>
       </c>
@@ -2306,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>43853</v>
       </c>
@@ -2314,13 +2303,13 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>43853</v>
       </c>
@@ -2328,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -2337,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>43853</v>
       </c>
@@ -2354,7 +2343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>43854</v>
       </c>
@@ -2362,16 +2351,16 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D50">
         <v>375</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>43854</v>
       </c>
@@ -2379,16 +2368,16 @@
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D51">
         <v>384</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>43854</v>
       </c>
@@ -2396,16 +2385,16 @@
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>32</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>43854</v>
       </c>
@@ -2413,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53">
         <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>43854</v>
       </c>
@@ -2430,16 +2419,16 @@
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>43854</v>
       </c>
@@ -2447,16 +2436,16 @@
         <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>43854</v>
       </c>
@@ -2464,16 +2453,16 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>43854</v>
       </c>
@@ -2481,16 +2470,16 @@
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>43854</v>
       </c>
@@ -2498,16 +2487,16 @@
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43854</v>
       </c>
@@ -2515,16 +2504,16 @@
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>43854</v>
       </c>
@@ -2532,16 +2521,16 @@
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>43854</v>
       </c>
@@ -2549,16 +2538,16 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>43854</v>
       </c>
@@ -2566,16 +2555,16 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>43854</v>
       </c>
@@ -2583,16 +2572,16 @@
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>43854</v>
       </c>
@@ -2600,16 +2589,16 @@
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>43854</v>
       </c>
@@ -2617,16 +2606,16 @@
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>43854</v>
       </c>
@@ -2634,16 +2623,16 @@
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>43854</v>
       </c>
@@ -2660,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>43854</v>
       </c>
@@ -2677,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>43854</v>
       </c>
@@ -2685,7 +2674,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2702,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2711,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>43854</v>
       </c>
@@ -2719,7 +2708,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2728,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>43854</v>
       </c>
@@ -2736,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -2745,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>43854</v>
       </c>
@@ -2762,7 +2751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>43855</v>
       </c>
@@ -2779,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>43855</v>
       </c>
@@ -2796,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>43855</v>
       </c>
@@ -2804,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2821,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2830,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>43855</v>
       </c>
@@ -2838,7 +2827,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -2847,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>43855</v>
       </c>
@@ -2855,7 +2844,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -2864,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>43855</v>
       </c>
@@ -2872,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2881,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>43855</v>
       </c>
@@ -2898,7 +2887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>43855</v>
       </c>
@@ -2906,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2915,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>43855</v>
       </c>
@@ -2923,7 +2912,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2932,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>43855</v>
       </c>
@@ -2940,16 +2929,16 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D84">
         <v>5</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>43855</v>
       </c>
@@ -2957,16 +2946,16 @@
         <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>43855</v>
       </c>
@@ -2974,16 +2963,16 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>43856</v>
       </c>
@@ -3000,7 +2989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>43856</v>
       </c>
@@ -3017,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>43856</v>
       </c>
@@ -3034,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>43856</v>
       </c>
@@ -3042,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D90" s="1">
         <v>2</v>
@@ -3059,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D91" s="1">
         <v>4</v>
@@ -3068,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>43856</v>
       </c>
@@ -3076,7 +3065,7 @@
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="1">
         <v>4</v>
@@ -3085,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>43856</v>
       </c>
@@ -3093,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -3102,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>43856</v>
       </c>
@@ -3110,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
@@ -3119,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>43856</v>
       </c>
@@ -3127,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -3136,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>43856</v>
       </c>
@@ -3144,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1">
         <v>2</v>
@@ -3153,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>43856</v>
       </c>
@@ -3161,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -3170,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>43856</v>
       </c>
@@ -3178,16 +3167,16 @@
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D98">
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>43856</v>
       </c>
@@ -3195,16 +3184,16 @@
         <v>6</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>43856</v>
       </c>
@@ -3212,16 +3201,16 @@
         <v>6</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>43857</v>
       </c>
@@ -3238,7 +3227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>43857</v>
       </c>
@@ -3255,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>43857</v>
       </c>
@@ -3272,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>43857</v>
       </c>
@@ -3280,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -3297,7 +3286,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D105" s="1">
         <v>4</v>
@@ -3306,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>43857</v>
       </c>
@@ -3314,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D106" s="1">
         <v>4</v>
@@ -3323,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>43857</v>
       </c>
@@ -3331,7 +3320,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D107" s="1">
         <v>4</v>
@@ -3340,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>43857</v>
       </c>
@@ -3348,7 +3337,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1">
         <v>5</v>
@@ -3357,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>43857</v>
       </c>
@@ -3365,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -3374,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>43857</v>
       </c>
@@ -3382,7 +3371,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D110" s="1">
         <v>5</v>
@@ -3391,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>43857</v>
       </c>
@@ -3399,7 +3388,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -3408,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>43857</v>
       </c>
@@ -3416,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
@@ -3425,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>43857</v>
       </c>
@@ -3433,16 +3422,16 @@
         <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D113">
         <v>8</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>43857</v>
       </c>
@@ -3450,16 +3439,16 @@
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D114">
         <v>5</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>43857</v>
       </c>
@@ -3467,16 +3456,16 @@
         <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D115">
         <v>4</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>43858</v>
       </c>
@@ -3493,7 +3482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>43858</v>
       </c>
@@ -3510,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>43858</v>
       </c>
@@ -3527,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>43858</v>
       </c>
@@ -3535,7 +3524,7 @@
         <v>8</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -3552,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D120" s="1">
         <v>7</v>
@@ -3561,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>43858</v>
       </c>
@@ -3569,7 +3558,7 @@
         <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
@@ -3578,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>43858</v>
       </c>
@@ -3586,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D122" s="1">
         <v>4</v>
@@ -3595,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>43858</v>
       </c>
@@ -3603,7 +3592,7 @@
         <v>8</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -3612,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>43858</v>
       </c>
@@ -3620,7 +3609,7 @@
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1">
         <v>14</v>
@@ -3629,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>43858</v>
       </c>
@@ -3637,7 +3626,7 @@
         <v>8</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -3646,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>43858</v>
       </c>
@@ -3654,7 +3643,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -3663,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>43858</v>
       </c>
@@ -3671,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D127" s="1">
         <v>5</v>
@@ -3680,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>43858</v>
       </c>
@@ -3688,7 +3677,7 @@
         <v>8</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -3697,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>43858</v>
       </c>
@@ -3705,7 +3694,7 @@
         <v>8</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -3714,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>43858</v>
       </c>
@@ -3722,7 +3711,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -3731,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>43858</v>
       </c>
@@ -3739,16 +3728,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D131">
         <v>8</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>43858</v>
       </c>
@@ -3756,16 +3745,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D132">
         <v>7</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>43858</v>
       </c>
@@ -3773,16 +3762,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D133">
         <v>7</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="10">
         <v>43859</v>
       </c>
@@ -3799,7 +3788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="10">
         <v>43859</v>
       </c>
@@ -3816,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="10">
         <v>43859</v>
       </c>
@@ -3833,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="10">
         <v>43859</v>
       </c>
@@ -3841,7 +3830,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D137" s="12">
         <v>2</v>
@@ -3858,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D138" s="12">
         <v>7</v>
@@ -3867,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="10">
         <v>43859</v>
       </c>
@@ -3875,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139" s="12">
         <v>7</v>
@@ -3884,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="10">
         <v>43859</v>
       </c>
@@ -3892,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D140" s="12">
         <v>4</v>
@@ -3901,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="10">
         <v>43859</v>
       </c>
@@ -3909,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D141" s="12">
         <v>1</v>
@@ -3918,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="10">
         <v>43859</v>
       </c>
@@ -3926,7 +3915,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D142" s="12">
         <v>14</v>
@@ -3935,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="10">
         <v>43859</v>
       </c>
@@ -3943,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D143" s="12">
         <v>1</v>
@@ -3952,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="10">
         <v>43859</v>
       </c>
@@ -3960,7 +3949,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D144" s="12">
         <v>1</v>
@@ -3969,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="10">
         <v>43859</v>
       </c>
@@ -3977,7 +3966,7 @@
         <v>9</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D145" s="12">
         <v>5</v>
@@ -3986,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="10">
         <v>43859</v>
       </c>
@@ -3994,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D146" s="12">
         <v>3</v>
@@ -4003,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="10">
         <v>43859</v>
       </c>
@@ -4011,7 +4000,7 @@
         <v>9</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D147" s="12">
         <v>4</v>
@@ -4020,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="10">
         <v>43859</v>
       </c>
@@ -4028,7 +4017,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D148" s="12">
         <v>4</v>
@@ -4037,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="10">
         <v>43859</v>
       </c>
@@ -4045,7 +4034,7 @@
         <v>9</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D149" s="12">
         <v>4</v>
@@ -4054,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="10">
         <v>43859</v>
       </c>
@@ -4062,16 +4051,16 @@
         <v>9</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D150" s="13">
         <v>8</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="10">
         <v>43859</v>
       </c>
@@ -4079,16 +4068,16 @@
         <v>9</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D151" s="13">
         <v>7</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="10">
         <v>43859</v>
       </c>
@@ -4096,17 +4085,22 @@
         <v>9</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D152" s="13">
         <v>8</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101" xr:uid="{5E8C5D7B-D6FC-9E4F-A122-0AB23733A3F2}">
+  <autoFilter ref="A1:E152" xr:uid="{5E8C5D7B-D6FC-9E4F-A122-0AB23733A3F2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Singapore"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:E101">
       <sortCondition ref="A1:A101"/>
     </sortState>
@@ -4120,7 +4114,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -4133,16 +4127,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -4150,10 +4144,10 @@
         <v>43857</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D2" s="15">
         <v>2798</v>
@@ -4167,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" s="15">
         <v>2741</v>
@@ -4181,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="15">
         <v>5794</v>
@@ -4195,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="15">
         <v>461</v>
@@ -4209,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="15">
         <v>80</v>
@@ -4220,10 +4214,10 @@
         <v>43857</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="15">
         <v>37</v>
@@ -4234,10 +4228,10 @@
         <v>43857</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8" s="15">
         <v>11</v>
@@ -4251,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4262,13 +4256,13 @@
         <v>43857</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4276,13 +4270,13 @@
         <v>43857</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -4290,10 +4284,10 @@
         <v>43858</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D12" s="15">
         <v>4593</v>
@@ -4307,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D13" s="15">
         <v>4537</v>
@@ -4321,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D14" s="15">
         <v>6973</v>
@@ -4335,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="15">
         <v>976</v>
@@ -4349,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="15">
         <v>106</v>
@@ -4360,10 +4354,10 @@
         <v>43858</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="15">
         <v>56</v>
@@ -4374,10 +4368,10 @@
         <v>43858</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="15">
         <v>14</v>
@@ -4391,10 +4385,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4402,13 +4396,13 @@
         <v>43858</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4416,13 +4410,13 @@
         <v>43858</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -4430,10 +4424,10 @@
         <v>43858</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D22" s="15">
         <v>6065</v>
@@ -4447,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D23" s="15">
         <v>5997</v>
@@ -4461,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D24" s="15">
         <v>9239</v>
@@ -4475,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25" s="15">
         <v>1239</v>
@@ -4489,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="15">
         <v>132</v>
@@ -4500,10 +4494,10 @@
         <v>43858</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="15">
         <v>68</v>
@@ -4514,10 +4508,10 @@
         <v>43858</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D28" s="15">
         <v>15</v>
@@ -4531,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -4542,13 +4536,13 @@
         <v>43858</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -4556,13 +4550,13 @@
         <v>43858</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4587,10 +4581,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.15">
@@ -4599,56 +4593,56 @@
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8501CD-761B-6441-9771-B9EA52226C2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFB44DA-5AE7-2B48-B9E7-BC9352907724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="1840" windowWidth="26520" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24680" yWindow="1840" windowWidth="26520" windowHeight="20780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WHO-Data'!$A$1:$E$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WHO-Data'!$A$1:$E$173</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="65">
   <si>
     <t>China</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Not Avail</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -232,6 +229,12 @@
   </si>
   <si>
     <t>China - Chongqing Municipality</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView topLeftCell="A129" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>43850</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43850</v>
       </c>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43850</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>43850</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43850</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>43850</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>43850</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>43850</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>43852</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>43852</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>43852</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>43852</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>43852</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1760,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>43852</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>43852</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>43852</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>43852</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>43852</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>43852</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>43852</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>43852</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>43852</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>43852</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>43852</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>43852</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>43852</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>43853</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>43853</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>43853</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>43853</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>43853</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>43853</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -2080,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>43853</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>43853</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>43853</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>43853</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>43853</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>43853</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>43853</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>43853</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>43853</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>43853</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>43853</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>43853</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>43853</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>43853</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>43853</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>43853</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>43854</v>
       </c>
@@ -2356,11 +2358,11 @@
       <c r="D50">
         <v>375</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>43854</v>
       </c>
@@ -2373,11 +2375,11 @@
       <c r="D51">
         <v>384</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>43854</v>
       </c>
@@ -2390,11 +2392,11 @@
       <c r="D52">
         <v>32</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>43854</v>
       </c>
@@ -2407,11 +2409,11 @@
       <c r="D53">
         <v>10</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>43854</v>
       </c>
@@ -2424,11 +2426,11 @@
       <c r="D54">
         <v>9</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>43854</v>
       </c>
@@ -2436,16 +2438,16 @@
         <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>5</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>43854</v>
       </c>
@@ -2458,11 +2460,11 @@
       <c r="D56">
         <v>5</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>43854</v>
       </c>
@@ -2475,11 +2477,11 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>43854</v>
       </c>
@@ -2492,11 +2494,11 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>43854</v>
       </c>
@@ -2509,11 +2511,11 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>43854</v>
       </c>
@@ -2526,11 +2528,11 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>43854</v>
       </c>
@@ -2543,11 +2545,11 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>43854</v>
       </c>
@@ -2560,11 +2562,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>43854</v>
       </c>
@@ -2577,11 +2579,11 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>43854</v>
       </c>
@@ -2594,11 +2596,11 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>43854</v>
       </c>
@@ -2611,11 +2613,11 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>43854</v>
       </c>
@@ -2628,11 +2630,11 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>43854</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>43854</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>43854</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>43854</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>43854</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>43854</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>43855</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>43855</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>43855</v>
       </c>
@@ -2810,7 +2812,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -2819,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>43855</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>43855</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>43855</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>43855</v>
       </c>
@@ -2887,7 +2889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>43855</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>43855</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>43855</v>
       </c>
@@ -2934,11 +2936,11 @@
       <c r="D84">
         <v>5</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>43855</v>
       </c>
@@ -2951,11 +2953,11 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>43855</v>
       </c>
@@ -2968,11 +2970,11 @@
       <c r="D86">
         <v>3</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>43856</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>43856</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>43856</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>43856</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" s="1">
         <v>4</v>
@@ -3057,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>43856</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>43856</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>43856</v>
       </c>
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>43856</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>43856</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>43856</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>43856</v>
       </c>
@@ -3172,11 +3174,11 @@
       <c r="D98">
         <v>5</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>43856</v>
       </c>
@@ -3189,11 +3191,11 @@
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>43856</v>
       </c>
@@ -3206,11 +3208,11 @@
       <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>43857</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>43857</v>
       </c>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>43857</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>43857</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D105" s="1">
         <v>4</v>
@@ -3295,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>43857</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>43857</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>43857</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>43857</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>43857</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>43857</v>
       </c>
@@ -3388,7 +3390,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -3397,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>43857</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>43857</v>
       </c>
@@ -3427,11 +3429,11 @@
       <c r="D113">
         <v>8</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>43857</v>
       </c>
@@ -3444,11 +3446,11 @@
       <c r="D114">
         <v>5</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>43857</v>
       </c>
@@ -3461,11 +3463,11 @@
       <c r="D115">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>43858</v>
       </c>
@@ -3482,7 +3484,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>43858</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>43858</v>
       </c>
@@ -3516,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>43858</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D120" s="1">
         <v>7</v>
@@ -3550,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>43858</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>43858</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>43858</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>8</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
@@ -3601,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>43858</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>43858</v>
       </c>
@@ -3635,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>43858</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -3652,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>43858</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>43858</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>8</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -3686,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>43858</v>
       </c>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>43858</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -3720,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>43858</v>
       </c>
@@ -3733,11 +3735,11 @@
       <c r="D131">
         <v>8</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>43858</v>
       </c>
@@ -3750,11 +3752,11 @@
       <c r="D132">
         <v>7</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>43858</v>
       </c>
@@ -3767,11 +3769,11 @@
       <c r="D133">
         <v>7</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A134" s="10">
         <v>43859</v>
       </c>
@@ -3788,7 +3790,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A135" s="10">
         <v>43859</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A136" s="10">
         <v>43859</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A137" s="10">
         <v>43859</v>
       </c>
@@ -3847,7 +3849,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D138" s="12">
         <v>7</v>
@@ -3856,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A139" s="10">
         <v>43859</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A140" s="10">
         <v>43859</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A141" s="10">
         <v>43859</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D141" s="12">
         <v>1</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A142" s="10">
         <v>43859</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A143" s="10">
         <v>43859</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A144" s="10">
         <v>43859</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D144" s="12">
         <v>1</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A145" s="10">
         <v>43859</v>
       </c>
@@ -3975,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A146" s="10">
         <v>43859</v>
       </c>
@@ -3983,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D146" s="12">
         <v>3</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A147" s="10">
         <v>43859</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A148" s="10">
         <v>43859</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D148" s="12">
         <v>4</v>
@@ -4026,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A149" s="10">
         <v>43859</v>
       </c>
@@ -4034,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D149" s="12">
         <v>4</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="10">
         <v>43859</v>
       </c>
@@ -4056,11 +4058,11 @@
       <c r="D150" s="13">
         <v>8</v>
       </c>
-      <c r="E150" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E150" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="10">
         <v>43859</v>
       </c>
@@ -4073,11 +4075,11 @@
       <c r="D151" s="13">
         <v>7</v>
       </c>
-      <c r="E151" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E151" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="10">
         <v>43859</v>
       </c>
@@ -4090,31 +4092,374 @@
       <c r="D152" s="13">
         <v>8</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="E152" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A153" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B153" s="11">
+        <v>10</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="12">
+        <v>7736</v>
+      </c>
+      <c r="E153" s="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A154" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B154" s="11">
+        <v>10</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="12">
+        <v>11</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A155" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B155" s="11">
+        <v>10</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="12">
+        <v>4</v>
+      </c>
+      <c r="E155" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A156" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B156" s="11">
+        <v>10</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="12">
+        <v>2</v>
+      </c>
+      <c r="E156" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A157" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B157" s="11">
+        <v>10</v>
+      </c>
+      <c r="C157" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="D157" s="12">
+        <v>10</v>
+      </c>
+      <c r="E157" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A158" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B158" s="11">
+        <v>10</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="12">
+        <v>7</v>
+      </c>
+      <c r="E158" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A159" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B159" s="11">
+        <v>10</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="12">
+        <v>7</v>
+      </c>
+      <c r="E159" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A160" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B160" s="11">
+        <v>10</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" s="12">
+        <v>1</v>
+      </c>
+      <c r="E160" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A161" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B161" s="11">
+        <v>10</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" s="12">
+        <v>1</v>
+      </c>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A162" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B162" s="11">
+        <v>10</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="12">
+        <v>14</v>
+      </c>
+      <c r="E162" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A163" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B163" s="11">
+        <v>10</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="12">
+        <v>1</v>
+      </c>
+      <c r="E163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A164" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B164" s="11">
+        <v>10</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D164" s="12">
+        <v>1</v>
+      </c>
+      <c r="E164" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A165" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B165" s="11">
+        <v>10</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" s="12">
+        <v>1</v>
+      </c>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A166" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B166" s="11">
+        <v>10</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="12">
+        <v>5</v>
+      </c>
+      <c r="E166" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A167" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B167" s="11">
+        <v>10</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" s="12">
+        <v>3</v>
+      </c>
+      <c r="E167" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A168" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B168" s="11">
+        <v>10</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="12">
+        <v>5</v>
+      </c>
+      <c r="E168" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A169" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B169" s="11">
+        <v>10</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169" s="12">
+        <v>4</v>
+      </c>
+      <c r="E169" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A170" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B170" s="11">
+        <v>10</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D170" s="12">
+        <v>4</v>
+      </c>
+      <c r="E170" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A171" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B171" s="11">
+        <v>10</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D171" s="13">
+        <v>10</v>
+      </c>
+      <c r="E171" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B172" s="11">
+        <v>10</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" s="13">
+        <v>7</v>
+      </c>
+      <c r="E172" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A173" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B173" s="11">
+        <v>10</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D173" s="13">
+        <v>8</v>
+      </c>
+      <c r="E173" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E152" xr:uid="{5E8C5D7B-D6FC-9E4F-A122-0AB23733A3F2}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Singapore"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:E101">
-      <sortCondition ref="A1:A101"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -4130,13 +4475,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -4144,10 +4489,10 @@
         <v>43857</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="15">
         <v>2798</v>
@@ -4161,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="15">
         <v>2741</v>
@@ -4175,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="15">
         <v>5794</v>
@@ -4189,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="15">
         <v>461</v>
@@ -4214,10 +4559,10 @@
         <v>43857</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="15">
         <v>37</v>
@@ -4228,10 +4573,10 @@
         <v>43857</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="15">
         <v>11</v>
@@ -4245,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4256,13 +4601,13 @@
         <v>43857</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4270,13 +4615,13 @@
         <v>43857</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -4284,10 +4629,10 @@
         <v>43858</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="15">
         <v>4593</v>
@@ -4301,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="15">
         <v>4537</v>
@@ -4315,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="15">
         <v>6973</v>
@@ -4329,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="15">
         <v>976</v>
@@ -4354,10 +4699,10 @@
         <v>43858</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="15">
         <v>56</v>
@@ -4368,10 +4713,10 @@
         <v>43858</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="15">
         <v>14</v>
@@ -4385,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4396,13 +4741,13 @@
         <v>43858</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,24 +4755,24 @@
         <v>43858</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="15">
         <v>6065</v>
@@ -4435,13 +4780,13 @@
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="15">
         <v>5997</v>
@@ -4449,13 +4794,13 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="15">
         <v>9239</v>
@@ -4463,13 +4808,13 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="15">
         <v>1239</v>
@@ -4477,7 +4822,7 @@
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -4491,13 +4836,13 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D27" s="15">
         <v>68</v>
@@ -4505,13 +4850,13 @@
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="15">
         <v>15</v>
@@ -4519,44 +4864,184 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="15">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A33" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="15">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A34" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="15">
+        <v>12167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A35" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A36" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A37" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A38" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A39" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="15" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A40" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A41" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFB44DA-5AE7-2B48-B9E7-BC9352907724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0ACD93-EB92-9143-A6E3-2A3EC7842F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="1840" windowWidth="26520" windowHeight="20780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
     <sheet name="SituationNumbers" sheetId="4" r:id="rId2"/>
-    <sheet name="Info" sheetId="3" r:id="rId3"/>
+    <sheet name="CDC-Country-List" sheetId="5" r:id="rId3"/>
+    <sheet name="Info" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WHO-Data'!$A$1:$E$173</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="76">
   <si>
     <t>China</t>
   </si>
@@ -235,6 +236,39 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>The Republic of Korea</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -1510,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView topLeftCell="A159" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174:C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4110,7 +4144,7 @@
         <v>7736</v>
       </c>
       <c r="E153" s="12">
-        <v>132</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.15">
@@ -4446,6 +4480,397 @@
         <v>8</v>
       </c>
       <c r="E173" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A174" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B174" s="11">
+        <v>11</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="12">
+        <v>9720</v>
+      </c>
+      <c r="E174" s="12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A175" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B175" s="11">
+        <v>11</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" s="12">
+        <v>14</v>
+      </c>
+      <c r="E175" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A176" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B176" s="11">
+        <v>11</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="12">
+        <v>11</v>
+      </c>
+      <c r="E176" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A177" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B177" s="11">
+        <v>11</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" s="12">
+        <v>5</v>
+      </c>
+      <c r="E177" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A178" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B178" s="11">
+        <v>11</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D178" s="12">
+        <v>13</v>
+      </c>
+      <c r="E178" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A179" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B179" s="11">
+        <v>11</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="12">
+        <v>9</v>
+      </c>
+      <c r="E179" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A180" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B180" s="11">
+        <v>11</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="12">
+        <v>8</v>
+      </c>
+      <c r="E180" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A181" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B181" s="11">
+        <v>11</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D181" s="12">
+        <v>1</v>
+      </c>
+      <c r="E181" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A182" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B182" s="11">
+        <v>11</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" s="12">
+        <v>1</v>
+      </c>
+      <c r="E182" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A183" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B183" s="11">
+        <v>11</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="12">
+        <v>14</v>
+      </c>
+      <c r="E183" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A184" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B184" s="11">
+        <v>11</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="12">
+        <v>1</v>
+      </c>
+      <c r="E184" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A185" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B185" s="11">
+        <v>11</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D185" s="12">
+        <v>1</v>
+      </c>
+      <c r="E185" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A186" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B186" s="11">
+        <v>11</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" s="12">
+        <v>1</v>
+      </c>
+      <c r="E186" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A187" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B187" s="11">
+        <v>11</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="12">
+        <v>6</v>
+      </c>
+      <c r="E187" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A188" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B188" s="11">
+        <v>11</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D188" s="12">
+        <v>3</v>
+      </c>
+      <c r="E188" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A189" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B189" s="11">
+        <v>11</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="12">
+        <v>6</v>
+      </c>
+      <c r="E189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A190" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B190" s="11">
+        <v>11</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D190" s="12">
+        <v>1</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A191" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B191" s="11">
+        <v>11</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D191" s="12">
+        <v>5</v>
+      </c>
+      <c r="E191" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A192" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B192" s="11">
+        <v>11</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D192" s="12">
+        <v>2</v>
+      </c>
+      <c r="E192" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A193" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B193" s="11">
+        <v>11</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D193" s="12">
+        <v>4</v>
+      </c>
+      <c r="E193" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A194" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B194" s="11">
+        <v>11</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" s="13">
+        <v>12</v>
+      </c>
+      <c r="E194" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A195" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B195" s="11">
+        <v>11</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D195" s="13">
+        <v>7</v>
+      </c>
+      <c r="E195" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A196" s="10">
+        <v>43861</v>
+      </c>
+      <c r="B196" s="11">
+        <v>11</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D196" s="13">
+        <v>9</v>
+      </c>
+      <c r="E196" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4456,10 +4881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -5044,12 +5469,305 @@
         <v>53</v>
       </c>
     </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A42" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="15">
+        <v>9826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A43" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="15">
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A44" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="15">
+        <v>15238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A45" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A46" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A47" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A48" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A49" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A50" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A51" s="14">
+        <v>43861</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0B8F9-F32A-564B-A0A9-4D61042910BD}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EF8EEC-06D7-D247-8015-084E719ED0B9}">
   <dimension ref="A1:B9"/>
   <sheetViews>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0ACD93-EB92-9143-A6E3-2A3EC7842F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2678932-1706-6840-9131-6303CA6AE208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="78">
   <si>
     <t>China</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>NotAvail</t>
   </si>
 </sst>
 </file>
@@ -1544,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174:C196"/>
+    <sheetView topLeftCell="A187" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4874,6 +4880,465 @@
         <v>0</v>
       </c>
     </row>
+    <row r="197" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A197" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B197" s="11">
+        <v>12</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="12">
+        <v>11821</v>
+      </c>
+      <c r="E197" s="12">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A198" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B198" s="11">
+        <v>12</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" s="12">
+        <v>17</v>
+      </c>
+      <c r="E198" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A199" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B199" s="11">
+        <v>12</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="12">
+        <v>12</v>
+      </c>
+      <c r="E199" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A200" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B200" s="11">
+        <v>12</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" s="12">
+        <v>6</v>
+      </c>
+      <c r="E200" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A201" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B201" s="11">
+        <v>12</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D201" s="12">
+        <v>16</v>
+      </c>
+      <c r="E201" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A202" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B202" s="11">
+        <v>12</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="12">
+        <v>12</v>
+      </c>
+      <c r="E202" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A203" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B203" s="11">
+        <v>12</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="12">
+        <v>8</v>
+      </c>
+      <c r="E203" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A204" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B204" s="11">
+        <v>12</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="12">
+        <v>1</v>
+      </c>
+      <c r="E204" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A205" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B205" s="11">
+        <v>12</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" s="12">
+        <v>1</v>
+      </c>
+      <c r="E205" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A206" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B206" s="11">
+        <v>12</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D206" s="12">
+        <v>19</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A207" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B207" s="11">
+        <v>12</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="12">
+        <v>1</v>
+      </c>
+      <c r="E207" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A208" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B208" s="11">
+        <v>12</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D208" s="12">
+        <v>1</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A209" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B209" s="11">
+        <v>12</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D209" s="12">
+        <v>1</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A210" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B210" s="11">
+        <v>12</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="12">
+        <v>7</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A211" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B211" s="11">
+        <v>12</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D211" s="12">
+        <v>4</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A212" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B212" s="11">
+        <v>12</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="12">
+        <v>6</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A213" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B213" s="11">
+        <v>12</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D213" s="12">
+        <v>1</v>
+      </c>
+      <c r="E213" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A214" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B214" s="11">
+        <v>12</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D214" s="12">
+        <v>7</v>
+      </c>
+      <c r="E214" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A215" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B215" s="11">
+        <v>12</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D215" s="12">
+        <v>2</v>
+      </c>
+      <c r="E215" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A216" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B216" s="11">
+        <v>12</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D216" s="12">
+        <v>2</v>
+      </c>
+      <c r="E216" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A217" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B217" s="11">
+        <v>12</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D217" s="12">
+        <v>1</v>
+      </c>
+      <c r="E217" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A218" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B218" s="11">
+        <v>12</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D218" s="12">
+        <v>1</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A219" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B219" s="11">
+        <v>12</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D219" s="12">
+        <v>2</v>
+      </c>
+      <c r="E219" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A220" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B220" s="11">
+        <v>12</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D220" s="12">
+        <v>4</v>
+      </c>
+      <c r="E220" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A221" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B221" s="11">
+        <v>12</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221" s="13">
+        <v>12</v>
+      </c>
+      <c r="E221" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A222" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B222" s="11">
+        <v>12</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D222" s="13">
+        <v>7</v>
+      </c>
+      <c r="E222" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A223" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B223" s="11">
+        <v>12</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D223" s="13">
+        <v>9</v>
+      </c>
+      <c r="E223" s="13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4881,10 +5346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -5609,6 +6074,146 @@
         <v>53</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A52" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="15">
+        <v>11953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A53" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="15">
+        <v>11821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A54" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A55" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A56" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A57" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A58" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A59" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A60" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A61" s="14">
+        <v>43862</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5618,7 +6223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0B8F9-F32A-564B-A0A9-4D61042910BD}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2678932-1706-6840-9131-6303CA6AE208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A25743-E868-1849-8132-7B19B7FD1070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
     <sheet name="SituationNumbers" sheetId="4" r:id="rId2"/>
-    <sheet name="CDC-Country-List" sheetId="5" r:id="rId3"/>
-    <sheet name="Info" sheetId="3" r:id="rId4"/>
+    <sheet name="Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WHO-Data'!$A$1:$E$173</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="72">
   <si>
     <t>China</t>
   </si>
@@ -244,31 +243,13 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>The Republic of Korea</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
   </si>
   <si>
     <t>Spain</t>
@@ -1550,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5211,7 +5192,7 @@
         <v>12</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D216" s="12">
         <v>2</v>
@@ -5228,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D217" s="12">
         <v>1</v>
@@ -5245,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D218" s="12">
         <v>1</v>
@@ -5262,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D219" s="12">
         <v>2</v>
@@ -5336,6 +5317,465 @@
         <v>9</v>
       </c>
       <c r="E223" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A224" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B224" s="11">
+        <v>13</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" s="12">
+        <v>14411</v>
+      </c>
+      <c r="E224" s="12">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A225" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B225" s="11">
+        <v>13</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225" s="12">
+        <v>20</v>
+      </c>
+      <c r="E225" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A226" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B226" s="11">
+        <v>13</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="12">
+        <v>15</v>
+      </c>
+      <c r="E226" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A227" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B227" s="11">
+        <v>13</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D227" s="12">
+        <v>7</v>
+      </c>
+      <c r="E227" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A228" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B228" s="11">
+        <v>13</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D228" s="12">
+        <v>18</v>
+      </c>
+      <c r="E228" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A229" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B229" s="11">
+        <v>13</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="12">
+        <v>12</v>
+      </c>
+      <c r="E229" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A230" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B230" s="11">
+        <v>13</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" s="12">
+        <v>8</v>
+      </c>
+      <c r="E230" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A231" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B231" s="11">
+        <v>13</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D231" s="12">
+        <v>1</v>
+      </c>
+      <c r="E231" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A232" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B232" s="11">
+        <v>13</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" s="12">
+        <v>2</v>
+      </c>
+      <c r="E232" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A233" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B233" s="11">
+        <v>13</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="12">
+        <v>19</v>
+      </c>
+      <c r="E233" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A234" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B234" s="11">
+        <v>13</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="12">
+        <v>1</v>
+      </c>
+      <c r="E234" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A235" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B235" s="11">
+        <v>13</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D235" s="12">
+        <v>1</v>
+      </c>
+      <c r="E235" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A236" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B236" s="11">
+        <v>13</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D236" s="12">
+        <v>2</v>
+      </c>
+      <c r="E236" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A237" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B237" s="11">
+        <v>13</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="12">
+        <v>8</v>
+      </c>
+      <c r="E237" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A238" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B238" s="11">
+        <v>13</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D238" s="12">
+        <v>4</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A239" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B239" s="11">
+        <v>13</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="12">
+        <v>6</v>
+      </c>
+      <c r="E239" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A240" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B240" s="11">
+        <v>13</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D240" s="12">
+        <v>1</v>
+      </c>
+      <c r="E240" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A241" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B241" s="11">
+        <v>13</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D241" s="12">
+        <v>8</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A242" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B242" s="11">
+        <v>13</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D242" s="12">
+        <v>2</v>
+      </c>
+      <c r="E242" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A243" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B243" s="11">
+        <v>13</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D243" s="12">
+        <v>2</v>
+      </c>
+      <c r="E243" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A244" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B244" s="11">
+        <v>13</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D244" s="12">
+        <v>1</v>
+      </c>
+      <c r="E244" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A245" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B245" s="11">
+        <v>13</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" s="12">
+        <v>1</v>
+      </c>
+      <c r="E245" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A246" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B246" s="11">
+        <v>13</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D246" s="12">
+        <v>2</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A247" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B247" s="11">
+        <v>13</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D247" s="12">
+        <v>5</v>
+      </c>
+      <c r="E247" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A248" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B248" s="11">
+        <v>13</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D248" s="13">
+        <v>14</v>
+      </c>
+      <c r="E248" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A249" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B249" s="11">
+        <v>13</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D249" s="13">
+        <v>7</v>
+      </c>
+      <c r="E249" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A250" s="10">
+        <v>43863</v>
+      </c>
+      <c r="B250" s="11">
+        <v>13</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D250" s="13">
+        <v>10</v>
+      </c>
+      <c r="E250" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5346,10 +5786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -6113,7 +6553,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -6211,6 +6651,160 @@
         <v>51</v>
       </c>
       <c r="D61" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A62" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="15">
+        <v>14557</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A63" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="15">
+        <v>14411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A64" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A65" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="15">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A66" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A67" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A68" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A69" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A70" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A71" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A72" s="14">
+        <v>43863</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6220,159 +6814,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E0B8F9-F32A-564B-A0A9-4D61042910BD}">
-  <dimension ref="A1:A27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EF8EEC-06D7-D247-8015-084E719ED0B9}">
   <dimension ref="A1:B9"/>
   <sheetViews>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/NovelCoronavirusData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/2019-nCoV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A25743-E868-1849-8132-7B19B7FD1070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0E877F-1934-6947-9E25-4822C7CD0AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="75">
   <si>
     <t>China</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>NotAvail</t>
+  </si>
+  <si>
+    <t>Cases with Travel history to China</t>
+  </si>
+  <si>
+    <t>Possible Confirmed transmission outside China</t>
+  </si>
+  <si>
+    <t>Transmission Site under investigation</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1540,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1545,7 +1556,7 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="70" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1561,8 +1572,17 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>43850</v>
       </c>
@@ -1579,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43850</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43850</v>
       </c>
@@ -1613,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>43850</v>
       </c>
@@ -1630,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43850</v>
       </c>
@@ -1647,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>43850</v>
       </c>
@@ -1664,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>43850</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>43850</v>
       </c>
@@ -1698,7 +1718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>43852</v>
       </c>
@@ -1715,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>43852</v>
       </c>
@@ -1732,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>43852</v>
       </c>
@@ -1749,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>43852</v>
       </c>
@@ -1766,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>43852</v>
       </c>
@@ -1783,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>43852</v>
       </c>
@@ -1800,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>43852</v>
       </c>
@@ -5609,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A241" s="10">
         <v>43863</v>
       </c>
@@ -5626,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A242" s="10">
         <v>43863</v>
       </c>
@@ -5643,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A243" s="10">
         <v>43863</v>
       </c>
@@ -5660,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A244" s="10">
         <v>43863</v>
       </c>
@@ -5677,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A245" s="10">
         <v>43863</v>
       </c>
@@ -5694,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A246" s="10">
         <v>43863</v>
       </c>
@@ -5711,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A247" s="10">
         <v>43863</v>
       </c>
@@ -5728,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A248" s="10">
         <v>43863</v>
       </c>
@@ -5745,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A249" s="10">
         <v>43863</v>
       </c>
@@ -5762,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A250" s="10">
         <v>43863</v>
       </c>
@@ -5776,6 +5796,672 @@
         <v>10</v>
       </c>
       <c r="E250" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A251" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B251" s="11">
+        <v>14</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251" s="12">
+        <v>17238</v>
+      </c>
+      <c r="E251" s="12">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A252" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B252" s="11">
+        <v>14</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D252" s="12">
+        <v>20</v>
+      </c>
+      <c r="E252" s="12">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>17</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A253" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B253" s="11">
+        <v>14</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="12">
+        <v>15</v>
+      </c>
+      <c r="E253" s="12">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>8</v>
+      </c>
+      <c r="G253">
+        <v>4</v>
+      </c>
+      <c r="H253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A254" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B254" s="11">
+        <v>14</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D254" s="12">
+        <v>8</v>
+      </c>
+      <c r="E254" s="12">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>6</v>
+      </c>
+      <c r="G254">
+        <v>2</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A255" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B255" s="11">
+        <v>14</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D255" s="12">
+        <v>18</v>
+      </c>
+      <c r="E255" s="12">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>18</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A256" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B256" s="11">
+        <v>14</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256" s="12">
+        <v>12</v>
+      </c>
+      <c r="E256" s="12">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>12</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A257" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B257" s="11">
+        <v>14</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" s="12">
+        <v>8</v>
+      </c>
+      <c r="E257" s="12">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>7</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A258" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B258" s="11">
+        <v>14</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D258" s="12">
+        <v>1</v>
+      </c>
+      <c r="E258" s="12">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A259" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B259" s="11">
+        <v>14</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" s="12">
+        <v>2</v>
+      </c>
+      <c r="E259" s="12">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A260" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B260" s="11">
+        <v>14</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" s="12">
+        <v>19</v>
+      </c>
+      <c r="E260" s="12">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>18</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A261" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B261" s="11">
+        <v>14</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="12">
+        <v>1</v>
+      </c>
+      <c r="E261" s="12">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A262" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B262" s="11">
+        <v>14</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D262" s="12">
+        <v>1</v>
+      </c>
+      <c r="E262" s="12">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A263" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B263" s="11">
+        <v>14</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D263" s="12">
+        <v>3</v>
+      </c>
+      <c r="E263" s="12">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A264" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B264" s="11">
+        <v>14</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="12">
+        <v>11</v>
+      </c>
+      <c r="E264" s="12">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264">
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A265" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B265" s="11">
+        <v>14</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D265" s="12">
+        <v>4</v>
+      </c>
+      <c r="E265" s="12">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>3</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A266" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B266" s="11">
+        <v>14</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="12">
+        <v>6</v>
+      </c>
+      <c r="E266" s="12">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>5</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A267" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B267" s="11">
+        <v>14</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D267" s="12">
+        <v>1</v>
+      </c>
+      <c r="E267" s="12">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A268" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B268" s="11">
+        <v>14</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D268" s="12">
+        <v>10</v>
+      </c>
+      <c r="E268" s="12">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268">
+        <v>8</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A269" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B269" s="11">
+        <v>14</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D269" s="12">
+        <v>2</v>
+      </c>
+      <c r="E269" s="12">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A270" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B270" s="11">
+        <v>14</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D270" s="12">
+        <v>2</v>
+      </c>
+      <c r="E270" s="12">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A271" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B271" s="11">
+        <v>14</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D271" s="12">
+        <v>1</v>
+      </c>
+      <c r="E271" s="12">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A272" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B272" s="11">
+        <v>14</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" s="12">
+        <v>1</v>
+      </c>
+      <c r="E272" s="12">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A273" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B273" s="11">
+        <v>14</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D273" s="12">
+        <v>2</v>
+      </c>
+      <c r="E273" s="12">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A274" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B274" s="11">
+        <v>14</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D274" s="12">
+        <v>5</v>
+      </c>
+      <c r="E274" s="12">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A275" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B275" s="11">
+        <v>14</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D275" s="13">
+        <v>15</v>
+      </c>
+      <c r="E275" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A276" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B276" s="11">
+        <v>14</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D276" s="13">
+        <v>8</v>
+      </c>
+      <c r="E276" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A277" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B277" s="11">
+        <v>14</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D277" s="13">
+        <v>10</v>
+      </c>
+      <c r="E277" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5786,10 +6472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -6805,6 +7491,160 @@
         <v>51</v>
       </c>
       <c r="D72" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A73" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="15">
+        <v>17391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A74" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="15">
+        <v>17238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A75" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A76" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="15">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A77" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A79" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A80" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A81" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A82" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A83" s="14">
+        <v>43864</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="15" t="s">
         <v>53</v>
       </c>
     </row>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/2019-nCoV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0E877F-1934-6947-9E25-4822C7CD0AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3DAC97-0C95-664B-9726-EF779E5EA438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="76">
   <si>
     <t>China</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Transmission Site under investigation</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
 </sst>
 </file>
@@ -1540,20 +1543,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H332"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H275" sqref="H275"/>
+      <selection pane="bottomLeft" activeCell="G329" sqref="G329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="70" x14ac:dyDescent="0.15">
@@ -6462,6 +6467,1361 @@
         <v>10</v>
       </c>
       <c r="E277" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A278" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B278" s="11">
+        <v>15</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D278" s="12">
+        <v>20471</v>
+      </c>
+      <c r="E278" s="12">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A279" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B279" s="11">
+        <v>15</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D279" s="12">
+        <v>20</v>
+      </c>
+      <c r="E279" s="12">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>17</v>
+      </c>
+      <c r="G279">
+        <v>3</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A280" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B280" s="11">
+        <v>15</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" s="12">
+        <v>16</v>
+      </c>
+      <c r="E280" s="12">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>8</v>
+      </c>
+      <c r="G280">
+        <v>5</v>
+      </c>
+      <c r="H280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A281" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B281" s="11">
+        <v>15</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D281" s="12">
+        <v>9</v>
+      </c>
+      <c r="E281" s="12">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>7</v>
+      </c>
+      <c r="G281">
+        <v>2</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A282" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B282" s="11">
+        <v>15</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D282" s="12">
+        <v>18</v>
+      </c>
+      <c r="E282" s="12">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>18</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A283" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B283" s="11">
+        <v>15</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D283" s="12">
+        <v>12</v>
+      </c>
+      <c r="E283" s="12">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>12</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A284" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B284" s="11">
+        <v>15</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284" s="12">
+        <v>10</v>
+      </c>
+      <c r="E284" s="12">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>7</v>
+      </c>
+      <c r="G284">
+        <v>3</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A285" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B285" s="11">
+        <v>15</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D285" s="12">
+        <v>1</v>
+      </c>
+      <c r="E285" s="12">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A286" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B286" s="11">
+        <v>15</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D286" s="12">
+        <v>2</v>
+      </c>
+      <c r="E286" s="12">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A287" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B287" s="11">
+        <v>15</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="12">
+        <v>19</v>
+      </c>
+      <c r="E287" s="12">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>18</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A288" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B288" s="11">
+        <v>15</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="12">
+        <v>1</v>
+      </c>
+      <c r="E288" s="12">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A289" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B289" s="11">
+        <v>15</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D289" s="12">
+        <v>1</v>
+      </c>
+      <c r="E289" s="12">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A290" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B290" s="11">
+        <v>15</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D290" s="12">
+        <v>3</v>
+      </c>
+      <c r="E290" s="12">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>3</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A291" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B291" s="11">
+        <v>15</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="12">
+        <v>11</v>
+      </c>
+      <c r="E291" s="12">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>8</v>
+      </c>
+      <c r="G291">
+        <v>2</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A292" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B292" s="11">
+        <v>15</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D292" s="12">
+        <v>4</v>
+      </c>
+      <c r="E292" s="12">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>3</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A293" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B293" s="11">
+        <v>15</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="12">
+        <v>6</v>
+      </c>
+      <c r="E293" s="12">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>5</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A294" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B294" s="11">
+        <v>15</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D294" s="12">
+        <v>1</v>
+      </c>
+      <c r="E294" s="12">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A295" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B295" s="11">
+        <v>15</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D295" s="12">
+        <v>12</v>
+      </c>
+      <c r="E295" s="12">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+      <c r="G295">
+        <v>10</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A296" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B296" s="11">
+        <v>15</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D296" s="12">
+        <v>2</v>
+      </c>
+      <c r="E296" s="12">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A297" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B297" s="11">
+        <v>15</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D297" s="12">
+        <v>2</v>
+      </c>
+      <c r="E297" s="12">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A298" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B298" s="11">
+        <v>15</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D298" s="12">
+        <v>1</v>
+      </c>
+      <c r="E298" s="12">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A299" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B299" s="11">
+        <v>15</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" s="12">
+        <v>1</v>
+      </c>
+      <c r="E299" s="12">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A300" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B300" s="11">
+        <v>15</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D300" s="12">
+        <v>2</v>
+      </c>
+      <c r="E300" s="12">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A301" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B301" s="11">
+        <v>15</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D301" s="12">
+        <v>5</v>
+      </c>
+      <c r="E301" s="12">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>5</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A302" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B302" s="11">
+        <v>15</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D302" s="13">
+        <v>15</v>
+      </c>
+      <c r="E302" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A303" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B303" s="11">
+        <v>15</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D303" s="13">
+        <v>8</v>
+      </c>
+      <c r="E303" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A304" s="10">
+        <v>43865</v>
+      </c>
+      <c r="B304" s="11">
+        <v>15</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D304" s="13">
+        <v>10</v>
+      </c>
+      <c r="E304" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A305" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B305" s="11">
+        <v>16</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D305" s="12">
+        <v>24363</v>
+      </c>
+      <c r="E305" s="12">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A306" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B306" s="11">
+        <v>16</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D306" s="12">
+        <v>33</v>
+      </c>
+      <c r="E306" s="12">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>20</v>
+      </c>
+      <c r="G306">
+        <v>13</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A307" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B307" s="11">
+        <v>16</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307" s="12">
+        <v>18</v>
+      </c>
+      <c r="E307" s="12">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>8</v>
+      </c>
+      <c r="G307">
+        <v>7</v>
+      </c>
+      <c r="H307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A308" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B308" s="11">
+        <v>16</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D308" s="12">
+        <v>10</v>
+      </c>
+      <c r="E308" s="12">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>6</v>
+      </c>
+      <c r="G308">
+        <v>3</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A309" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B309" s="11">
+        <v>16</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D309" s="12">
+        <v>24</v>
+      </c>
+      <c r="E309" s="12">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>20</v>
+      </c>
+      <c r="G309">
+        <v>4</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A310" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B310" s="11">
+        <v>16</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D310" s="12">
+        <v>13</v>
+      </c>
+      <c r="E310" s="12">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>13</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A311" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B311" s="11">
+        <v>16</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D311" s="12">
+        <v>10</v>
+      </c>
+      <c r="E311" s="12">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>7</v>
+      </c>
+      <c r="G311">
+        <v>2</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A312" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B312" s="11">
+        <v>16</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D312" s="12">
+        <v>1</v>
+      </c>
+      <c r="E312" s="12">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A313" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B313" s="11">
+        <v>16</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313" s="12">
+        <v>3</v>
+      </c>
+      <c r="E313" s="12">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>2</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A314" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B314" s="11">
+        <v>16</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" s="12">
+        <v>25</v>
+      </c>
+      <c r="E314" s="12">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>20</v>
+      </c>
+      <c r="G314">
+        <v>5</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A315" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B315" s="11">
+        <v>16</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="12">
+        <v>1</v>
+      </c>
+      <c r="E315" s="12">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A316" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B316" s="11">
+        <v>16</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D316" s="12">
+        <v>1</v>
+      </c>
+      <c r="E316" s="12">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A317" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B317" s="11">
+        <v>16</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D317" s="12">
+        <v>3</v>
+      </c>
+      <c r="E317" s="12">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>3</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A318" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B318" s="11">
+        <v>16</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="12">
+        <v>11</v>
+      </c>
+      <c r="E318" s="12">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>8</v>
+      </c>
+      <c r="G318">
+        <v>2</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A319" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B319" s="11">
+        <v>16</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D319" s="12">
+        <v>5</v>
+      </c>
+      <c r="E319" s="12">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>3</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A320" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B320" s="11">
+        <v>16</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="12">
+        <v>6</v>
+      </c>
+      <c r="E320" s="12">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>5</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A321" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B321" s="11">
+        <v>16</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D321" s="12">
+        <v>1</v>
+      </c>
+      <c r="E321" s="12">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A322" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B322" s="11">
+        <v>16</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D322" s="12">
+        <v>12</v>
+      </c>
+      <c r="E322" s="12">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>2</v>
+      </c>
+      <c r="G322">
+        <v>10</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A323" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B323" s="11">
+        <v>16</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D323" s="12">
+        <v>2</v>
+      </c>
+      <c r="E323" s="12">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>2</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A324" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B324" s="11">
+        <v>16</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D324" s="12">
+        <v>2</v>
+      </c>
+      <c r="E324" s="12">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A325" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B325" s="11">
+        <v>16</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D325" s="12">
+        <v>1</v>
+      </c>
+      <c r="E325" s="12">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A326" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B326" s="11">
+        <v>16</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D326" s="12">
+        <v>1</v>
+      </c>
+      <c r="E326" s="12">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A327" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B327" s="11">
+        <v>16</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D327" s="12">
+        <v>2</v>
+      </c>
+      <c r="E327" s="12">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A328" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B328" s="11">
+        <v>16</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D328" s="12">
+        <v>1</v>
+      </c>
+      <c r="E328" s="12">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="17" x14ac:dyDescent="0.15">
+      <c r="A329" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B329" s="11">
+        <v>16</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D329" s="12">
+        <v>5</v>
+      </c>
+      <c r="E329" s="12">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>5</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A330" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B330" s="11">
+        <v>16</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D330" s="13">
+        <v>15</v>
+      </c>
+      <c r="E330" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A331" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B331" s="11">
+        <v>16</v>
+      </c>
+      <c r="C331" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D331" s="13">
+        <v>8</v>
+      </c>
+      <c r="E331" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A332" s="10">
+        <v>43866</v>
+      </c>
+      <c r="B332" s="11">
+        <v>16</v>
+      </c>
+      <c r="C332" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D332" s="13">
+        <v>10</v>
+      </c>
+      <c r="E332" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6472,10 +7832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790E6A4C-D365-9744-96B0-CEA155AE8B0E}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A73" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -7648,6 +9008,314 @@
         <v>53</v>
       </c>
     </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A84" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="15">
+        <v>20630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A85" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="15">
+        <v>20471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A86" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A87" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="15">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A88" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A89" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A90" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A91" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A92" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A93" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A94" s="14">
+        <v>43865</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A95" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="15">
+        <v>24554</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A96" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="15">
+        <v>24363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A97" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A98" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="15">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A99" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="15">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A100" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A101" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A102" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A103" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A104" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A105" s="14">
+        <v>43866</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7657,7 +9325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EF8EEC-06D7-D247-8015-084E719ED0B9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/2019-nCoV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3DAC97-0C95-664B-9726-EF779E5EA438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AEA34-91DB-FE4C-A140-44E8A4D100C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHO-Data" sheetId="2" r:id="rId1"/>
@@ -1545,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8641C3A-DA45-1B41-BC10-1E7E8EC457C5}">
   <dimension ref="A1:H332"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G329" sqref="G329"/>
@@ -9325,7 +9325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EF8EEC-06D7-D247-8015-084E719ED0B9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/who-confirmed-cases.xlsx
+++ b/who-confirmed-cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mink/Documents/GitHub/2019-nCoV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AEA34-91DB-FE4C-A140-44E8A4D100C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401050DE-4C30-3040-A574-6F982D334BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19040" yWindow="2260" windowWidth="19020" windowHeight="24060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,9 +1546,9 @@
   <dimension ref="A1:H332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G329" sqref="G329"/>
+      <selection pane="bottomLeft" activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1561,7 +1561,7 @@
     <col min="7" max="7" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="70" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="98" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7505,10 +7505,10 @@
         <v>5</v>
       </c>
       <c r="E319" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F319">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G319">
         <v>1</v>
